--- a/data/trans_orig/Barthel_r-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Barthel_r-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>97166</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89784</v>
+        <v>89127</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104580</v>
+        <v>103796</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8450067842297619</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7808056566320278</v>
+        <v>0.7750915119030675</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9094772695997767</v>
+        <v>0.9026634767325938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>127</v>
@@ -765,19 +765,19 @@
         <v>123926</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113464</v>
+        <v>113475</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132243</v>
+        <v>132520</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8287409245851483</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7587799524352519</v>
+        <v>0.7588536719164025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8843584663179853</v>
+        <v>0.8862127506733547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>227</v>
@@ -786,19 +786,19 @@
         <v>221092</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>207772</v>
+        <v>206240</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>231669</v>
+        <v>231146</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8358117055461781</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.785454917929836</v>
+        <v>0.7796632818109408</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8757964018016646</v>
+        <v>0.873819422980685</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>5611</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11292</v>
+        <v>11076</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04879623507040207</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01640139466761457</v>
+        <v>0.01639395532367775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.098197784373195</v>
+        <v>0.09632450981816421</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -836,19 +836,19 @@
         <v>9522</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4337</v>
+        <v>5097</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17475</v>
+        <v>17588</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0636762669338166</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02900358323919171</v>
+        <v>0.03408254861361004</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1168593902017411</v>
+        <v>0.1176189514142824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -857,19 +857,19 @@
         <v>15133</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9324</v>
+        <v>8390</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23947</v>
+        <v>24453</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05720790631236056</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03524959448412095</v>
+        <v>0.03171554481462736</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0905283810592524</v>
+        <v>0.09244002083990818</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>8581</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3883</v>
+        <v>3834</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15026</v>
+        <v>15452</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07462625313714229</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03377089434716555</v>
+        <v>0.03334154275127169</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1306700894418512</v>
+        <v>0.1343818934012332</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -907,19 +907,19 @@
         <v>9319</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4294</v>
+        <v>4320</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17125</v>
+        <v>17104</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06231682517439528</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02871737369255036</v>
+        <v>0.02888790637884646</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1145198081645994</v>
+        <v>0.1143821134222709</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -928,19 +928,19 @@
         <v>17900</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11135</v>
+        <v>11001</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28081</v>
+        <v>28289</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06766774241958266</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04209554948673205</v>
+        <v>0.04158926439845839</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1061550445693299</v>
+        <v>0.1069431404462641</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>3630</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>956</v>
+        <v>876</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9269</v>
+        <v>8258</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03157072756269369</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008310473812679964</v>
+        <v>0.007619008067387436</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08060440715672676</v>
+        <v>0.07181918995740802</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -978,19 +978,19 @@
         <v>4426</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11058</v>
+        <v>10233</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02960073434677988</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007596808279287308</v>
+        <v>0.007580689214974441</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07394864470328662</v>
+        <v>0.0684294090447999</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -999,19 +999,19 @@
         <v>8057</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3896</v>
+        <v>3912</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15225</v>
+        <v>17070</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03045709182365347</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01472977418787675</v>
+        <v>0.01478992303333168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05755778446488958</v>
+        <v>0.06452930343639035</v>
       </c>
     </row>
     <row r="8">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8147</v>
+        <v>7807</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01566524895986001</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05448164042390502</v>
+        <v>0.05220983539462134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8275</v>
+        <v>7253</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00885555389822513</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0312841012975612</v>
+        <v>0.02742012477311053</v>
       </c>
     </row>
     <row r="9">
@@ -1166,19 +1166,19 @@
         <v>123520</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113981</v>
+        <v>113371</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131073</v>
+        <v>130723</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8466723274967098</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7812886768721257</v>
+        <v>0.7771032470383928</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.898443078613954</v>
+        <v>0.8960459642785658</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>133</v>
@@ -1187,19 +1187,19 @@
         <v>140729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>126019</v>
+        <v>127810</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150950</v>
+        <v>153067</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7703588438536726</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6898350938474828</v>
+        <v>0.6996397291057616</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8263092839818116</v>
+        <v>0.8378969078860289</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>256</v>
@@ -1208,19 +1208,19 @@
         <v>264249</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>248832</v>
+        <v>248538</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>278842</v>
+        <v>276779</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8042430635663308</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7573228500075847</v>
+        <v>0.7564264364443867</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8486579305695724</v>
+        <v>0.8423800065546725</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>10637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5580</v>
+        <v>5720</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17648</v>
+        <v>18066</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07290948532857948</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0382462460231107</v>
+        <v>0.03920883575414062</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1209689789308179</v>
+        <v>0.1238350268199912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1258,19 +1258,19 @@
         <v>14713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8737</v>
+        <v>7916</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24076</v>
+        <v>24247</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08054037328066084</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04782530645914738</v>
+        <v>0.04333532310468226</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1317917638197577</v>
+        <v>0.1327301074509653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -1279,19 +1279,19 @@
         <v>25350</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16280</v>
+        <v>17361</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36149</v>
+        <v>36317</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07715215573865387</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04954949440994742</v>
+        <v>0.0528369912008503</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1100192040001573</v>
+        <v>0.1105297548991958</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>6925</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3005</v>
+        <v>2988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13091</v>
+        <v>14164</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04746880536587825</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02059846541100445</v>
+        <v>0.02048450729643835</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08973248903538447</v>
+        <v>0.09708991588286166</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1329,19 +1329,19 @@
         <v>19212</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11505</v>
+        <v>11131</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31215</v>
+        <v>29946</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1051674541249895</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06297957107764147</v>
+        <v>0.06093135177211495</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1708706799622222</v>
+        <v>0.163926341551133</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -1350,19 +1350,19 @@
         <v>26137</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17544</v>
+        <v>17475</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38344</v>
+        <v>38377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07954847307018353</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05339470185392017</v>
+        <v>0.05318396019754478</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1166991253979534</v>
+        <v>0.1168006805221407</v>
       </c>
     </row>
     <row r="13">
@@ -1379,19 +1379,19 @@
         <v>4807</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1839</v>
+        <v>1808</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10545</v>
+        <v>10129</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03294938180883247</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01260609518200478</v>
+        <v>0.01238990093945536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0722788750932554</v>
+        <v>0.06942715631268676</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1400,19 +1400,19 @@
         <v>8026</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3475</v>
+        <v>3385</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16105</v>
+        <v>15720</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04393302490408316</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01902267133919581</v>
+        <v>0.01853225347607345</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08815887029087777</v>
+        <v>0.08605298161468947</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1421,19 +1421,19 @@
         <v>12833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6893</v>
+        <v>7045</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21813</v>
+        <v>22109</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03905613869579837</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02097831828403158</v>
+        <v>0.02144048656942098</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06638807493911372</v>
+        <v>0.06728837024512532</v>
       </c>
     </row>
     <row r="14">
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>1.549489913248474e-06</v>
+        <v>1.895764774388217e-06</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>8.610791551187367e-07</v>
+        <v>8.552188852795682e-07</v>
       </c>
     </row>
     <row r="15">
@@ -1588,19 +1588,19 @@
         <v>93088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85350</v>
+        <v>86015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97559</v>
+        <v>98699</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8918955741281961</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8177583746825112</v>
+        <v>0.824124256003448</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9347363792216782</v>
+        <v>0.9456580219062375</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -1609,19 +1609,19 @@
         <v>110257</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101012</v>
+        <v>99363</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118733</v>
+        <v>118308</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8116083291924294</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7435540958337147</v>
+        <v>0.7314204072619729</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8740015592191768</v>
+        <v>0.8708721767425642</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>205</v>
@@ -1630,19 +1630,19 @@
         <v>203345</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>190239</v>
+        <v>190594</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>213844</v>
+        <v>213410</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8464914915996495</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7919316122849435</v>
+        <v>0.7934131326621652</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8901989946837207</v>
+        <v>0.8883917790089496</v>
       </c>
     </row>
     <row r="17">
@@ -1659,19 +1659,19 @@
         <v>7571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3715</v>
+        <v>3341</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14742</v>
+        <v>14255</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07254197283150683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03559162538150993</v>
+        <v>0.03201474542278721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1412495629714671</v>
+        <v>0.1365835766192994</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1680,19 +1680,19 @@
         <v>9697</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5216</v>
+        <v>5305</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17926</v>
+        <v>16993</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07137659686884762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03839265299437009</v>
+        <v>0.03905052699190103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1319579678067959</v>
+        <v>0.1250840093076194</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -1701,19 +1701,19 @@
         <v>17268</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10499</v>
+        <v>10600</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27156</v>
+        <v>26261</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07188292883980309</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04370736521672727</v>
+        <v>0.0441264073812753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1130447071808149</v>
+        <v>0.1093207132752481</v>
       </c>
     </row>
     <row r="18">
@@ -1730,19 +1730,19 @@
         <v>2726</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7291</v>
+        <v>7609</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02611548191220318</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008385351312793575</v>
+        <v>0.008399416902445105</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0698611460410509</v>
+        <v>0.07290518775723438</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1751,19 +1751,19 @@
         <v>8316</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3843</v>
+        <v>4063</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14775</v>
+        <v>16704</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06121331256441614</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02829144709100144</v>
+        <v>0.02990676501536586</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1087595121399955</v>
+        <v>0.1229619454899748</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -1772,19 +1772,19 @@
         <v>11042</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5954</v>
+        <v>5885</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19235</v>
+        <v>19701</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04596402448930826</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02478469477269322</v>
+        <v>0.02450029228822731</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08007288907978939</v>
+        <v>0.08201018912712298</v>
       </c>
     </row>
     <row r="19">
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5039</v>
+        <v>4946</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009446971128093892</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04827920640839144</v>
+        <v>0.0473872314033457</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1822,19 +1822,19 @@
         <v>7581</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3224</v>
+        <v>3353</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14591</v>
+        <v>13980</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05580176137430687</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02373547188214585</v>
+        <v>0.02467942465200473</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1074038991636731</v>
+        <v>0.1029040256140668</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1843,19 +1843,19 @@
         <v>8567</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4123</v>
+        <v>3986</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16068</v>
+        <v>16308</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03566155507123915</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01716454766306463</v>
+        <v>0.01659240039520221</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06688652512583156</v>
+        <v>0.06788645592807463</v>
       </c>
     </row>
     <row r="20">
@@ -1994,19 +1994,19 @@
         <v>121677</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113379</v>
+        <v>113818</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127389</v>
+        <v>128039</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8867496848845048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8262737442821733</v>
+        <v>0.8294770406544322</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9283748233292999</v>
+        <v>0.933109613336783</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>159</v>
@@ -2015,19 +2015,19 @@
         <v>164027</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>150081</v>
+        <v>151280</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>175378</v>
+        <v>175345</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7856555336120609</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7188592409647403</v>
+        <v>0.7245994327135983</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.840026838872498</v>
+        <v>0.8398652206288552</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>297</v>
@@ -2036,19 +2036,19 @@
         <v>285705</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>269002</v>
+        <v>270859</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>297608</v>
+        <v>299653</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8257482637760122</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7774748109046566</v>
+        <v>0.7828420528110465</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8601523281383404</v>
+        <v>0.8660610514349039</v>
       </c>
     </row>
     <row r="23">
@@ -2065,19 +2065,19 @@
         <v>3294</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8350</v>
+        <v>7737</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02400918589871572</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006074082537888408</v>
+        <v>0.006010575788903547</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06085483372119757</v>
+        <v>0.05638477699436301</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2086,19 +2086,19 @@
         <v>12877</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6484</v>
+        <v>7176</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20748</v>
+        <v>22608</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06167732766663832</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0310582520377743</v>
+        <v>0.03436997616789967</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09937800591915856</v>
+        <v>0.1082899678172165</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -2107,19 +2107,19 @@
         <v>16171</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9503</v>
+        <v>9304</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25797</v>
+        <v>25550</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04673859357895786</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02746704385791479</v>
+        <v>0.02689015239509865</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07455749391409225</v>
+        <v>0.0738436937186568</v>
       </c>
     </row>
     <row r="24">
@@ -2136,19 +2136,19 @@
         <v>9767</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4991</v>
+        <v>5046</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17115</v>
+        <v>16926</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07117805452375359</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.036372876070785</v>
+        <v>0.03677418108130209</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1247319055697277</v>
+        <v>0.1233502918939268</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -2157,19 +2157,19 @@
         <v>23439</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15327</v>
+        <v>14674</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34486</v>
+        <v>33126</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1122685058349801</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07341433651081757</v>
+        <v>0.07028369428559385</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1651791833096473</v>
+        <v>0.158666973416055</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>32</v>
@@ -2178,19 +2178,19 @@
         <v>33206</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24086</v>
+        <v>23608</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>46634</v>
+        <v>46821</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.095972524751997</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06961309765081174</v>
+        <v>0.06823096530770789</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1347828427466332</v>
+        <v>0.1353230037676627</v>
       </c>
     </row>
     <row r="25">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5967</v>
+        <v>4991</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01195302921832015</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04348915853627415</v>
+        <v>0.03637186847400193</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2228,19 +2228,19 @@
         <v>6414</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2330</v>
+        <v>2253</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13297</v>
+        <v>13360</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03072065192886287</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01115878004098878</v>
+        <v>0.01078991952509144</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06368980847584767</v>
+        <v>0.063989448886647</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2249,19 +2249,19 @@
         <v>8054</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3768</v>
+        <v>3664</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16041</v>
+        <v>14848</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02327763743512793</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01089096735078885</v>
+        <v>0.01058947106843581</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04636331582503484</v>
+        <v>0.04291445010347789</v>
       </c>
     </row>
     <row r="26">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4587</v>
+        <v>5231</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006110045474705776</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03342755153683204</v>
+        <v>0.0381205609407777</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6936</v>
+        <v>6524</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009677980957457777</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0332238563666399</v>
+        <v>0.03124992299205712</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2320,19 +2320,19 @@
         <v>2859</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7264</v>
+        <v>7227</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00826298045790509</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002416325647199736</v>
+        <v>0.002404345432825493</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02099318631164678</v>
+        <v>0.02088716333997591</v>
       </c>
     </row>
     <row r="27">
@@ -2424,19 +2424,19 @@
         <v>435452</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>421055</v>
+        <v>418670</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>450348</v>
+        <v>447671</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.866629466775523</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8379776824867556</v>
+        <v>0.833229785300009</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8962752942964941</v>
+        <v>0.8909478235327777</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>534</v>
@@ -2445,19 +2445,19 @@
         <v>538939</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>514866</v>
+        <v>514436</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>559107</v>
+        <v>558410</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.796254873887873</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7606891421172306</v>
+        <v>0.7600539674311256</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8260521711858452</v>
+        <v>0.8250219555432539</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>985</v>
@@ -2466,19 +2466,19 @@
         <v>974391</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>946874</v>
+        <v>948531</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>998663</v>
+        <v>1000839</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.826239271918402</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8029068171393622</v>
+        <v>0.8043117519475036</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8468214609751848</v>
+        <v>0.8486664654168541</v>
       </c>
     </row>
     <row r="29">
@@ -2495,19 +2495,19 @@
         <v>27113</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18603</v>
+        <v>19008</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37710</v>
+        <v>38177</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05396077315178482</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03702312157619465</v>
+        <v>0.03782886511196717</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07505027362610489</v>
+        <v>0.07597828512111045</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -2516,19 +2516,19 @@
         <v>46808</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34776</v>
+        <v>34970</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>61978</v>
+        <v>61466</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06915683933968085</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05137956607411982</v>
+        <v>0.05166710105279717</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09156890637756268</v>
+        <v>0.09081325224470954</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -2537,19 +2537,19 @@
         <v>73922</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>59305</v>
+        <v>56690</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>94732</v>
+        <v>89687</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06268227404019051</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05028757743608576</v>
+        <v>0.04807041423824835</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08032858367633065</v>
+        <v>0.07605015829684007</v>
       </c>
     </row>
     <row r="30">
@@ -2566,19 +2566,19 @@
         <v>27999</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19621</v>
+        <v>20064</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38423</v>
+        <v>41248</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05572301280165718</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0390488169450838</v>
+        <v>0.03993060196178475</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07646791914878824</v>
+        <v>0.08209016428639954</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>54</v>
@@ -2587,19 +2587,19 @@
         <v>60285</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>46886</v>
+        <v>47001</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>78741</v>
+        <v>76922</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08906871208952903</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06927097614682147</v>
+        <v>0.06944139620786875</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1163357313707864</v>
+        <v>0.1136486008506902</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>84</v>
@@ -2608,19 +2608,19 @@
         <v>88284</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>72121</v>
+        <v>71013</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>107854</v>
+        <v>108104</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07486115963306089</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06115499372098712</v>
+        <v>0.06021581891753416</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09145569183839956</v>
+        <v>0.09166704292612637</v>
       </c>
     </row>
     <row r="31">
@@ -2637,19 +2637,19 @@
         <v>11063</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5466</v>
+        <v>6326</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18575</v>
+        <v>18223</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02201816811686558</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01087776431662796</v>
+        <v>0.01258900975498626</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0369678290931563</v>
+        <v>0.03626788328871255</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2658,19 +2658,19 @@
         <v>26446</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17639</v>
+        <v>18312</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>38472</v>
+        <v>39238</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0390733023749504</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02606024990527614</v>
+        <v>0.02705570681607219</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05683999075486417</v>
+        <v>0.05797162689149164</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>36</v>
@@ -2679,19 +2679,19 @@
         <v>37510</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>26695</v>
+        <v>26826</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>50603</v>
+        <v>50319</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0318066467102429</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02263654788390839</v>
+        <v>0.02274721077509538</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04290879163246709</v>
+        <v>0.04266834458706989</v>
       </c>
     </row>
     <row r="32">
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2729,19 +2729,19 @@
         <v>4363</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10648</v>
+        <v>10309</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006446272307966698</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001704408055958046</v>
+        <v>0.001695432792472907</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01573178700912805</v>
+        <v>0.01523173440684728</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2750,19 +2750,19 @@
         <v>5202</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1957</v>
+        <v>1964</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12122</v>
+        <v>11824</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004410647698103709</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001659391702659119</v>
+        <v>0.001665218163453322</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01027925302333246</v>
+        <v>0.01002635188117631</v>
       </c>
     </row>
     <row r="33">
@@ -3094,19 +3094,19 @@
         <v>121220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>111474</v>
+        <v>112296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128328</v>
+        <v>128181</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8686702168748822</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7988298140820614</v>
+        <v>0.8047208682461066</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9196037795519594</v>
+        <v>0.9185539987994569</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>109</v>
@@ -3115,19 +3115,19 @@
         <v>114405</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101791</v>
+        <v>102847</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125829</v>
+        <v>126439</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6859350399978804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.610306220321376</v>
+        <v>0.6166373609533075</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.754429049481848</v>
+        <v>0.758089530036166</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>220</v>
@@ -3136,19 +3136,19 @@
         <v>235625</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>220687</v>
+        <v>217925</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>250161</v>
+        <v>249272</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7691782023187484</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7204139856358222</v>
+        <v>0.711395315851066</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8166281933811083</v>
+        <v>0.8137270443671514</v>
       </c>
     </row>
     <row r="5">
@@ -3165,19 +3165,19 @@
         <v>5997</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2041</v>
+        <v>2169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11946</v>
+        <v>12957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04297123665128871</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01462658772571746</v>
+        <v>0.01554671287597587</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08560564074922611</v>
+        <v>0.09284857501685605</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -3186,19 +3186,19 @@
         <v>10841</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5386</v>
+        <v>5325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18334</v>
+        <v>19225</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06499907214007535</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03229252890422</v>
+        <v>0.0319244729309986</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1099232447705545</v>
+        <v>0.1152686060745409</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -3207,19 +3207,19 @@
         <v>16837</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9847</v>
+        <v>9722</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25987</v>
+        <v>25659</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05496451439094161</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03214313485373967</v>
+        <v>0.03173544857043235</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08483374135639608</v>
+        <v>0.08376221987668056</v>
       </c>
     </row>
     <row r="6">
@@ -3236,19 +3236,19 @@
         <v>8087</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3221</v>
+        <v>3768</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14992</v>
+        <v>14800</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05795316608623742</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02308467916927395</v>
+        <v>0.02699878328795146</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1074333277228395</v>
+        <v>0.1060609468674983</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -3257,19 +3257,19 @@
         <v>29913</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19349</v>
+        <v>20208</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40656</v>
+        <v>40403</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1793491711270485</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.116010774270815</v>
+        <v>0.1211606239492832</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2437593156863334</v>
+        <v>0.2422406039061794</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>35</v>
@@ -3278,19 +3278,19 @@
         <v>38000</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28045</v>
+        <v>28249</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>51364</v>
+        <v>52225</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1240484483794024</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09154934248914319</v>
+        <v>0.09221633852136556</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1676726212056466</v>
+        <v>0.1704828409806153</v>
       </c>
     </row>
     <row r="7">
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6945</v>
+        <v>7145</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01517488903850719</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04976545594278221</v>
+        <v>0.05119979905520326</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -3328,19 +3328,19 @@
         <v>9505</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4214</v>
+        <v>4248</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16735</v>
+        <v>16973</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05698824170379601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02526514145371745</v>
+        <v>0.02546970552885213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1003363070739889</v>
+        <v>0.1017654570042432</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -3349,19 +3349,19 @@
         <v>11622</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6250</v>
+        <v>6447</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19651</v>
+        <v>19862</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03794059164220354</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0204035507222984</v>
+        <v>0.02104697011133652</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06414859908819687</v>
+        <v>0.06483733157570981</v>
       </c>
     </row>
     <row r="8">
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8471</v>
+        <v>6449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01523049134908442</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06070591178703362</v>
+        <v>0.04621556507026429</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8453</v>
+        <v>7420</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01272847503119977</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0506826540791369</v>
+        <v>0.0444879596259547</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -3420,19 +3420,19 @@
         <v>4248</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9586</v>
+        <v>11317</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01386824326870405</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003469878286046045</v>
+        <v>0.003473073097123025</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03129170632557939</v>
+        <v>0.03694363991722951</v>
       </c>
     </row>
     <row r="9">
@@ -3524,19 +3524,19 @@
         <v>115921</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104300</v>
+        <v>102964</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125708</v>
+        <v>126933</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7484647302075841</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6734348128892735</v>
+        <v>0.6648071610825121</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8116560162707692</v>
+        <v>0.8195675783172446</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>113</v>
@@ -3545,19 +3545,19 @@
         <v>120574</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>106571</v>
+        <v>106404</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>134109</v>
+        <v>133071</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6298903917106389</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5567368748249275</v>
+        <v>0.5558666789487836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7006016174673243</v>
+        <v>0.6951778322137414</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>217</v>
@@ -3566,19 +3566,19 @@
         <v>236494</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>218670</v>
+        <v>218112</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>253525</v>
+        <v>253304</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6829214862293893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6314510512543803</v>
+        <v>0.6298395978624953</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7321007909243148</v>
+        <v>0.731462549329248</v>
       </c>
     </row>
     <row r="11">
@@ -3595,19 +3595,19 @@
         <v>6535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2169</v>
+        <v>2223</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15448</v>
+        <v>14773</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0421964456221608</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01400549598312509</v>
+        <v>0.01435180177777952</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09974418088878712</v>
+        <v>0.09538351979354413</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -3616,19 +3616,19 @@
         <v>8632</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4093</v>
+        <v>4330</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15432</v>
+        <v>16160</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04509520817634993</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0213827362787702</v>
+        <v>0.02262052668200261</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0806211320508817</v>
+        <v>0.08441914447301843</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -3637,19 +3637,19 @@
         <v>15167</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8367</v>
+        <v>8411</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25678</v>
+        <v>26014</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04379876787613625</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02416224777549242</v>
+        <v>0.02428816074020981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07415096848177105</v>
+        <v>0.0751191858232607</v>
       </c>
     </row>
     <row r="12">
@@ -3666,19 +3666,19 @@
         <v>22747</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14823</v>
+        <v>14378</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33969</v>
+        <v>33977</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1468730316294825</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0957071863659337</v>
+        <v>0.09283642624876061</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2193297668732933</v>
+        <v>0.2193782078374193</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -3687,19 +3687,19 @@
         <v>42106</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31463</v>
+        <v>30840</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55073</v>
+        <v>54810</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2199673014561835</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1643680047530763</v>
+        <v>0.1611095357032415</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2877058762827279</v>
+        <v>0.2863326064714</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -3708,19 +3708,19 @@
         <v>64854</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>50438</v>
+        <v>50751</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>79333</v>
+        <v>80325</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1872766773203491</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1456487483984602</v>
+        <v>0.1465540834958409</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2290889824125697</v>
+        <v>0.2319546719538206</v>
       </c>
     </row>
     <row r="13">
@@ -3737,19 +3737,19 @@
         <v>6647</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2260</v>
+        <v>2197</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13196</v>
+        <v>13806</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04291693574326403</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01459101945881181</v>
+        <v>0.01418793066159118</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08520036451838355</v>
+        <v>0.08914371313135812</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -3758,19 +3758,19 @@
         <v>15642</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8855</v>
+        <v>8869</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24307</v>
+        <v>24513</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08171313554448843</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04625713189192325</v>
+        <v>0.0463331966010395</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1269817266381864</v>
+        <v>0.1280587248453851</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -3779,19 +3779,19 @@
         <v>22288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14170</v>
+        <v>14569</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32933</v>
+        <v>34432</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06436195345309469</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04091843553922356</v>
+        <v>0.0420714731754009</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09509948073384501</v>
+        <v>0.09942983366245851</v>
       </c>
     </row>
     <row r="14">
@@ -3808,19 +3808,19 @@
         <v>3028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8102</v>
+        <v>8200</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01954885679750858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006367203132085063</v>
+        <v>0.006292047570461414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05231261269469686</v>
+        <v>0.05294268348335181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3829,19 +3829,19 @@
         <v>4467</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11126</v>
+        <v>11056</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0233339631123393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005767962576872644</v>
+        <v>0.005777303866152868</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05812197283107969</v>
+        <v>0.05775870298447543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -3850,19 +3850,19 @@
         <v>7494</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3370</v>
+        <v>3119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16126</v>
+        <v>14379</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02164111512103064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00973256611028297</v>
+        <v>0.009006075258239054</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0465655432668888</v>
+        <v>0.04152322043904799</v>
       </c>
     </row>
     <row r="15">
@@ -3954,19 +3954,19 @@
         <v>83160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71688</v>
+        <v>72185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91408</v>
+        <v>91397</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8027167214763448</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6919827366891484</v>
+        <v>0.6967816844099363</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8823345473944013</v>
+        <v>0.8822258526546622</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -3975,19 +3975,19 @@
         <v>97823</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85058</v>
+        <v>85962</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108422</v>
+        <v>108636</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6936858936617791</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6031698098711674</v>
+        <v>0.6095752112569501</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7688502005532598</v>
+        <v>0.7703677412408426</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -3996,19 +3996,19 @@
         <v>180983</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>165310</v>
+        <v>166296</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>194083</v>
+        <v>194158</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.73986177015011</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6757915472514469</v>
+        <v>0.6798229710892116</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7934167216332949</v>
+        <v>0.7937235681795941</v>
       </c>
     </row>
     <row r="17">
@@ -4025,19 +4025,19 @@
         <v>5271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2010</v>
+        <v>2078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11222</v>
+        <v>11287</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05087533320598907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01939926031173446</v>
+        <v>0.02006236109033076</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1083180863310743</v>
+        <v>0.1089526644568567</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -4046,19 +4046,19 @@
         <v>3073</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8233</v>
+        <v>8483</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02178959127867849</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0</v>
+        <v>0.006886056518938958</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05838268637451066</v>
+        <v>0.06015395332704398</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -4067,19 +4067,19 @@
         <v>8343</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4045</v>
+        <v>4037</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15978</v>
+        <v>15138</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03410775535876024</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01653644796678114</v>
+        <v>0.01650287330553016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0653191544000504</v>
+        <v>0.06188534724768343</v>
       </c>
     </row>
     <row r="18">
@@ -4096,19 +4096,19 @@
         <v>9669</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4223</v>
+        <v>4242</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19242</v>
+        <v>18493</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09332789342360064</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04076550478042563</v>
+        <v>0.04094743160181111</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1857352565305157</v>
+        <v>0.1785067883472939</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -4117,19 +4117,19 @@
         <v>28120</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19092</v>
+        <v>19169</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38921</v>
+        <v>37392</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1994023512134321</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1353880368197393</v>
+        <v>0.1359350592929762</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2760006505982328</v>
+        <v>0.2651585540994507</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -4138,19 +4138,19 @@
         <v>37788</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27121</v>
+        <v>27187</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>52778</v>
+        <v>52448</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1544785332470094</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1108727830758023</v>
+        <v>0.1111393994613158</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2157591935102191</v>
+        <v>0.21441062365343</v>
       </c>
     </row>
     <row r="19">
@@ -4167,19 +4167,19 @@
         <v>5499</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13329</v>
+        <v>14070</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05308005189406551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01106534244380322</v>
+        <v>0.01086213396123555</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1286641305645216</v>
+        <v>0.1358101543791908</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -4188,19 +4188,19 @@
         <v>7646</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3238</v>
+        <v>3240</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14404</v>
+        <v>15000</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05422117526910183</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02296273745420856</v>
+        <v>0.02297435503063877</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1021395202270931</v>
+        <v>0.1063654303837821</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -4209,19 +4209,19 @@
         <v>13145</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7537</v>
+        <v>6567</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23105</v>
+        <v>22084</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05373789569506025</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03081035796919881</v>
+        <v>0.02684742525730726</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0944519192371138</v>
+        <v>0.09028122493831382</v>
       </c>
     </row>
     <row r="20">
@@ -4251,19 +4251,19 @@
         <v>4358</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12442</v>
+        <v>12702</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03090098857700851</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007108206955772483</v>
+        <v>0.007170593109859508</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08822885420130655</v>
+        <v>0.09007466137994376</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -4272,19 +4272,19 @@
         <v>4358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13964</v>
+        <v>12454</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01781404554906015</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004079785851254372</v>
+        <v>0.004102500195995957</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05708691254022467</v>
+        <v>0.05091164528715666</v>
       </c>
     </row>
     <row r="21">
@@ -4376,19 +4376,19 @@
         <v>133948</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122183</v>
+        <v>121219</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142952</v>
+        <v>142978</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.828820560460943</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7560243558109857</v>
+        <v>0.7500569176777294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8845301862535505</v>
+        <v>0.8846919737178972</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>166</v>
@@ -4397,19 +4397,19 @@
         <v>175784</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>159941</v>
+        <v>160580</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>189946</v>
+        <v>188562</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7211663578557838</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6561678062394705</v>
+        <v>0.6587901434357731</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7792656429230486</v>
+        <v>0.7735897249590402</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>289</v>
@@ -4418,19 +4418,19 @@
         <v>309733</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>289640</v>
+        <v>291233</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>326749</v>
+        <v>325149</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.764086793201795</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.71451909014455</v>
+        <v>0.7184500105162039</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8060656709702257</v>
+        <v>0.8021177642595547</v>
       </c>
     </row>
     <row r="23">
@@ -4447,19 +4447,19 @@
         <v>4050</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1028</v>
+        <v>1002</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10022</v>
+        <v>9980</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02505752702439608</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006358648662299974</v>
+        <v>0.00619756230509217</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06201366406137597</v>
+        <v>0.06175490083041167</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -4468,19 +4468,19 @@
         <v>19394</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11384</v>
+        <v>11652</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29174</v>
+        <v>29378</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07956564958049722</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04670473038842651</v>
+        <v>0.0478032337376467</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.119688093287302</v>
+        <v>0.1205237953534289</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -4489,19 +4489,19 @@
         <v>23444</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15831</v>
+        <v>15728</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>36620</v>
+        <v>34484</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05783391692736364</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03905380517005329</v>
+        <v>0.03880029281866681</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09033887286169709</v>
+        <v>0.08506922572862584</v>
       </c>
     </row>
     <row r="24">
@@ -4518,19 +4518,19 @@
         <v>15477</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8518</v>
+        <v>8247</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26696</v>
+        <v>24922</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09576383139905156</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0527040218357071</v>
+        <v>0.05103016058837991</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.165186999827463</v>
+        <v>0.1542087603357239</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -4539,19 +4539,19 @@
         <v>33845</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24557</v>
+        <v>23819</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46559</v>
+        <v>46383</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.138850263528285</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1007485372797922</v>
+        <v>0.09771951620659107</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1910097166636554</v>
+        <v>0.1902877787311242</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -4560,19 +4560,19 @@
         <v>49321</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>36046</v>
+        <v>37841</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>63892</v>
+        <v>63447</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1216722214292166</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08892247689986991</v>
+        <v>0.09335184599054566</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1576162298940849</v>
+        <v>0.1565190605939396</v>
       </c>
     </row>
     <row r="25">
@@ -4589,19 +4589,19 @@
         <v>7146</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2925</v>
+        <v>3046</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14710</v>
+        <v>15710</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04421925755322292</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01809709044110816</v>
+        <v>0.01884855705550771</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09101784429348569</v>
+        <v>0.0972054389008232</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -4610,19 +4610,19 @@
         <v>10491</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5187</v>
+        <v>5393</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18318</v>
+        <v>19795</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04303937390878619</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02128152022732316</v>
+        <v>0.02212465009987143</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07514873802390713</v>
+        <v>0.0812108492731943</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -4631,19 +4631,19 @@
         <v>17637</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10305</v>
+        <v>9351</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27504</v>
+        <v>27507</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0435097793221503</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02542069120571754</v>
+        <v>0.02306860739448417</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06784912998037643</v>
+        <v>0.06785823049304157</v>
       </c>
     </row>
     <row r="26">
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4757</v>
+        <v>4964</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006138823562386502</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02943709691478355</v>
+        <v>0.03071739610679956</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -4684,16 +4684,16 @@
         <v>1092</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9367</v>
+        <v>10306</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01737835512664784</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004479407413954106</v>
+        <v>0.004479881129759751</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03843076081777741</v>
+        <v>0.04228081506854937</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -4702,19 +4702,19 @@
         <v>5228</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1969</v>
+        <v>1955</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11372</v>
+        <v>11463</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01289728911947449</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004857668761614084</v>
+        <v>0.004821800533438424</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02805394836358903</v>
+        <v>0.02827726343273165</v>
       </c>
     </row>
     <row r="27">
@@ -4806,19 +4806,19 @@
         <v>454250</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>433229</v>
+        <v>433418</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>472769</v>
+        <v>473366</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8116866712415944</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7741245105653179</v>
+        <v>0.7744623767766836</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8447779924019457</v>
+        <v>0.8458443116205143</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>478</v>
@@ -4827,19 +4827,19 @@
         <v>508585</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>481670</v>
+        <v>483610</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>534268</v>
+        <v>535634</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6845252546559197</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6482997365949633</v>
+        <v>0.6509095839565027</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7190932077924722</v>
+        <v>0.7209308224364944</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>890</v>
@@ -4848,19 +4848,19 @@
         <v>962835</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>926586</v>
+        <v>929441</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>993028</v>
+        <v>991230</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7391572067784471</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7113291578270742</v>
+        <v>0.7135210668750521</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7623362368934739</v>
+        <v>0.7609558479901252</v>
       </c>
     </row>
     <row r="29">
@@ -4877,19 +4877,19 @@
         <v>21852</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14300</v>
+        <v>13687</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33434</v>
+        <v>34370</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03904682886480369</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02555315523095675</v>
+        <v>0.02445728493302027</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05974174279534377</v>
+        <v>0.06141395932756818</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>40</v>
@@ -4898,19 +4898,19 @@
         <v>41940</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>29502</v>
+        <v>29806</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>56078</v>
+        <v>55770</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05644866447716115</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03970732410960396</v>
+        <v>0.0401174843221854</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07547716066023914</v>
+        <v>0.07506373894813158</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>60</v>
@@ -4919,19 +4919,19 @@
         <v>63792</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>48407</v>
+        <v>48572</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>79935</v>
+        <v>81685</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04897236957934618</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03716124922778133</v>
+        <v>0.03728822103721398</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06136515969994821</v>
+        <v>0.06270837070948049</v>
       </c>
     </row>
     <row r="30">
@@ -4948,19 +4948,19 @@
         <v>55980</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>41530</v>
+        <v>41795</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>73005</v>
+        <v>73249</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1000290294459607</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07420836067512829</v>
+        <v>0.07468238846266514</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1304502373104656</v>
+        <v>0.1308861881630025</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>123</v>
@@ -4969,19 +4969,19 @@
         <v>133983</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>112270</v>
+        <v>115155</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>154619</v>
+        <v>159663</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.180333592585333</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1511084244651959</v>
+        <v>0.1549920942564414</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2081076268295614</v>
+        <v>0.2148962752552912</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>171</v>
@@ -4990,19 +4990,19 @@
         <v>189963</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>165598</v>
+        <v>165694</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>215774</v>
+        <v>216403</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1458326003311708</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1271278091562528</v>
+        <v>0.1272012520048187</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.165647273869395</v>
+        <v>0.1661302824155012</v>
       </c>
     </row>
     <row r="31">
@@ -5019,19 +5019,19 @@
         <v>21410</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12885</v>
+        <v>13972</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>32684</v>
+        <v>33963</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03825681400497788</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02302377361791773</v>
+        <v>0.02496541149533754</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05840193003313054</v>
+        <v>0.06068756234840529</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>40</v>
@@ -5040,19 +5040,19 @@
         <v>43283</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>30893</v>
+        <v>31186</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>56588</v>
+        <v>58446</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05825692745058142</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04157960272606535</v>
+        <v>0.04197467767139044</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07616450144962243</v>
+        <v>0.0786651114871391</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>58</v>
@@ -5061,19 +5061,19 @@
         <v>64693</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>48871</v>
+        <v>49381</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>82482</v>
+        <v>81674</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04966434276929045</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0375179819316034</v>
+        <v>0.03790921234211415</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06332052829736805</v>
+        <v>0.06269990112468883</v>
       </c>
     </row>
     <row r="32">
@@ -5090,19 +5090,19 @@
         <v>6145</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2071</v>
+        <v>2118</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12228</v>
+        <v>12259</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01098065644266323</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003700798378189226</v>
+        <v>0.00378529663292644</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02184997904208417</v>
+        <v>0.02190457816595526</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -5111,19 +5111,19 @@
         <v>15183</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8440</v>
+        <v>8631</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25739</v>
+        <v>25176</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02043556083100474</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01136009137430478</v>
+        <v>0.01161689719398774</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03464287006245202</v>
+        <v>0.03388590796063402</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>19</v>
@@ -5132,19 +5132,19 @@
         <v>21328</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13127</v>
+        <v>13867</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>32790</v>
+        <v>32993</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01637348054174554</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01007762103531174</v>
+        <v>0.01064550183764989</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.025172154771132</v>
+        <v>0.02532839405136643</v>
       </c>
     </row>
     <row r="33">
@@ -5476,19 +5476,19 @@
         <v>112480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103976</v>
+        <v>103249</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120350</v>
+        <v>120128</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8226220200910058</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7604223015804091</v>
+        <v>0.7551084900172419</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8801736680525034</v>
+        <v>0.8785529668647547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -5497,19 +5497,19 @@
         <v>117356</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>104082</v>
+        <v>103879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129045</v>
+        <v>129536</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6768297419447761</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6002705924654035</v>
+        <v>0.5990998412207109</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7442402246882243</v>
+        <v>0.7470740550341473</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>228</v>
@@ -5518,19 +5518,19 @@
         <v>229837</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>212947</v>
+        <v>212740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>244213</v>
+        <v>244951</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7411095342794621</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6866478709644391</v>
+        <v>0.6859829753035684</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7874676041715724</v>
+        <v>0.7898458473077696</v>
       </c>
     </row>
     <row r="5">
@@ -5547,19 +5547,19 @@
         <v>4322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1585</v>
+        <v>1638</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9896</v>
+        <v>10360</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0316090747670838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01159331254912152</v>
+        <v>0.01197845311902946</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07237405806793859</v>
+        <v>0.07576397232466743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -5568,19 +5568,19 @@
         <v>15695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9137</v>
+        <v>9224</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25946</v>
+        <v>25956</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09052037477623778</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05269362999562037</v>
+        <v>0.05319845183186103</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1496367474503312</v>
+        <v>0.1496976424607165</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -5589,19 +5589,19 @@
         <v>20017</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12886</v>
+        <v>12430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31389</v>
+        <v>30416</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06454639193637408</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04155020333808328</v>
+        <v>0.04008118481790834</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1012134657600945</v>
+        <v>0.09807727803119481</v>
       </c>
     </row>
     <row r="6">
@@ -5618,19 +5618,19 @@
         <v>9634</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5044</v>
+        <v>5063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16168</v>
+        <v>16449</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07045942127701776</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03688777226911195</v>
+        <v>0.03702813257338536</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1182460112537342</v>
+        <v>0.1202958615725439</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -5639,19 +5639,19 @@
         <v>33331</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24094</v>
+        <v>22848</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45868</v>
+        <v>44760</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1922324895736779</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1389596765748262</v>
+        <v>0.1317716322613404</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2645362366085812</v>
+        <v>0.2581425314821356</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -5660,19 +5660,19 @@
         <v>42966</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31017</v>
+        <v>31222</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>57757</v>
+        <v>56909</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1385427630559551</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1000151906959232</v>
+        <v>0.1006762533174664</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1862375232105595</v>
+        <v>0.1835024670454035</v>
       </c>
     </row>
     <row r="7">
@@ -5689,19 +5689,19 @@
         <v>9405</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4958</v>
+        <v>5055</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16250</v>
+        <v>15636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06878376038242355</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03625849888334102</v>
+        <v>0.03697168575433057</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1188424748482634</v>
+        <v>0.1143543486915955</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5710,19 +5710,19 @@
         <v>5814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12895</v>
+        <v>12753</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03353197466784807</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01244314101935515</v>
+        <v>0.01246254483009627</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07436869687435238</v>
+        <v>0.07355068774386436</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -5731,19 +5731,19 @@
         <v>15219</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9432</v>
+        <v>8978</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23202</v>
+        <v>23711</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04907448140395235</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03041312970929531</v>
+        <v>0.02894850477217309</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07481397352660547</v>
+        <v>0.07645675185384947</v>
       </c>
     </row>
     <row r="8">
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4518</v>
+        <v>4489</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006525723482469055</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03303980416341106</v>
+        <v>0.03283322103885586</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6056</v>
+        <v>5984</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006885419037460151</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03492764383502656</v>
+        <v>0.03450973637875157</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6849</v>
+        <v>7169</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006726829324256364</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0220862358561465</v>
+        <v>0.02311578302777064</v>
       </c>
     </row>
     <row r="9">
@@ -5906,19 +5906,19 @@
         <v>134419</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123946</v>
+        <v>124764</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143023</v>
+        <v>142857</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8149544636746933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7514589303867891</v>
+        <v>0.7564167444526952</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8671167588786522</v>
+        <v>0.866111394154393</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -5927,19 +5927,19 @@
         <v>154642</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>138623</v>
+        <v>138877</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>167608</v>
+        <v>168059</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7056033907473475</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.632509174289513</v>
+        <v>0.6336702657580164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7647622050115491</v>
+        <v>0.7668197248437211</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>272</v>
@@ -5948,19 +5948,19 @@
         <v>289062</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>269216</v>
+        <v>270963</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>305997</v>
+        <v>305960</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7525606159009588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.700894085977222</v>
+        <v>0.7054420569696246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7966512312636772</v>
+        <v>0.7965556361171113</v>
       </c>
     </row>
     <row r="11">
@@ -5977,19 +5977,19 @@
         <v>9457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4423</v>
+        <v>4993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16469</v>
+        <v>15397</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05733708660818416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02681755330280438</v>
+        <v>0.03027087788791717</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09984943171411026</v>
+        <v>0.09334739887422959</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -5998,19 +5998,19 @@
         <v>23976</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14988</v>
+        <v>15595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34958</v>
+        <v>34580</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1093975825903795</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06838936841045667</v>
+        <v>0.07115611082794913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1595086718142663</v>
+        <v>0.1577801639558712</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -6019,19 +6019,19 @@
         <v>33433</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23927</v>
+        <v>23027</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45160</v>
+        <v>46152</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08704191322196955</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0622941207930137</v>
+        <v>0.05995100860962611</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1175723398038346</v>
+        <v>0.1201537877576267</v>
       </c>
     </row>
     <row r="12">
@@ -6048,19 +6048,19 @@
         <v>14231</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8349</v>
+        <v>8282</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21970</v>
+        <v>21706</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08627715753437469</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05061653326681283</v>
+        <v>0.05021023851536394</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1331969714100822</v>
+        <v>0.1316015790578191</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -6069,19 +6069,19 @@
         <v>28460</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18480</v>
+        <v>18390</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>41809</v>
+        <v>40885</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1298589471849365</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08432306823383801</v>
+        <v>0.08390871080635832</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.190767201353483</v>
+        <v>0.1865508501141361</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -6090,19 +6090,19 @@
         <v>42691</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31182</v>
+        <v>30686</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57273</v>
+        <v>55979</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1111441796528569</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08117994577807579</v>
+        <v>0.0798900747994702</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1491080395493105</v>
+        <v>0.1457383469969846</v>
       </c>
     </row>
     <row r="13">
@@ -6119,19 +6119,19 @@
         <v>5096</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2295</v>
+        <v>1800</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10335</v>
+        <v>11249</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03089686924957028</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01391380640362876</v>
+        <v>0.01091278642312423</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06265626603415918</v>
+        <v>0.06820129097350576</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -6140,19 +6140,19 @@
         <v>8815</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3809</v>
+        <v>3817</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16827</v>
+        <v>17383</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04021907276428754</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01738177138530442</v>
+        <v>0.01741782533669482</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07677921549285048</v>
+        <v>0.07931442368146507</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -6161,19 +6161,19 @@
         <v>13911</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7580</v>
+        <v>7621</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22697</v>
+        <v>23531</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03621595877875574</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01973410055142173</v>
+        <v>0.01984203599907691</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.059091680616672</v>
+        <v>0.06126296216891267</v>
       </c>
     </row>
     <row r="14">
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6024</v>
+        <v>5916</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01053442293317759</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03652376309914438</v>
+        <v>0.03586788796146669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11227</v>
+        <v>11259</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01492100671304906</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0512254639781338</v>
+        <v>0.05137183724085806</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -6232,19 +6232,19 @@
         <v>5008</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>932</v>
+        <v>1233</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13288</v>
+        <v>12350</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01303733244545901</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002425262652796422</v>
+        <v>0.003210163671641425</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03459454173026014</v>
+        <v>0.03215207311995705</v>
       </c>
     </row>
     <row r="15">
@@ -6336,19 +6336,19 @@
         <v>94890</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85876</v>
+        <v>84956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102700</v>
+        <v>101911</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8248811833224299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7465219341353352</v>
+        <v>0.7385252830155713</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8927716567251796</v>
+        <v>0.8859130702357881</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -6357,19 +6357,19 @@
         <v>96392</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84093</v>
+        <v>83912</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108522</v>
+        <v>108177</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6759771898299031</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.589725812759916</v>
+        <v>0.5884586789166806</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7610463148119652</v>
+        <v>0.7586289316685516</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>175</v>
@@ -6378,19 +6378,19 @@
         <v>191282</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174017</v>
+        <v>175042</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>204792</v>
+        <v>204892</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7424644296593929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6754486630572787</v>
+        <v>0.6794288032226177</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.794902794580578</v>
+        <v>0.7952916275147703</v>
       </c>
     </row>
     <row r="17">
@@ -6407,19 +6407,19 @@
         <v>7709</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3376</v>
+        <v>3464</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14823</v>
+        <v>16835</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06701119905393936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02934839044093902</v>
+        <v>0.03011191815743299</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1288534413038324</v>
+        <v>0.1463498830549001</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -6428,19 +6428,19 @@
         <v>9672</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4837</v>
+        <v>3881</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17264</v>
+        <v>17292</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0678312829465785</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0339192595495903</v>
+        <v>0.02721498573440832</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1210692180726879</v>
+        <v>0.1212655859280942</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -6449,19 +6449,19 @@
         <v>17381</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9819</v>
+        <v>9497</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28572</v>
+        <v>26744</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06746510663947404</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03811339981982711</v>
+        <v>0.03686179839132372</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1109016842675633</v>
+        <v>0.1038058144788936</v>
       </c>
     </row>
     <row r="18">
@@ -6478,19 +6478,19 @@
         <v>9716</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4920</v>
+        <v>4634</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16509</v>
+        <v>17024</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08446365761954937</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04276933618617886</v>
+        <v>0.04028570850839087</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1435122205955691</v>
+        <v>0.1479854849218233</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -6499,19 +6499,19 @@
         <v>23793</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15092</v>
+        <v>14759</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35234</v>
+        <v>34855</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1668539489138052</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1058355732775667</v>
+        <v>0.1035022140417862</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2470872356269466</v>
+        <v>0.2444294392510988</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -6520,19 +6520,19 @@
         <v>33509</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23196</v>
+        <v>23471</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46788</v>
+        <v>46564</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1300657948259322</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09003697062401261</v>
+        <v>0.09110326941115755</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1816080654788576</v>
+        <v>0.1807393619757036</v>
       </c>
     </row>
     <row r="19">
@@ -6549,19 +6549,19 @@
         <v>2720</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7263</v>
+        <v>7366</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02364396000408142</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00699505218484767</v>
+        <v>0.006913354633557404</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06313451625129736</v>
+        <v>0.06403397060528783</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -6570,19 +6570,19 @@
         <v>9084</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3929</v>
+        <v>3889</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17342</v>
+        <v>17667</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06370143687129892</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02755559329622284</v>
+        <v>0.02727279845111066</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1216194762553219</v>
+        <v>0.1238961682386168</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -6591,19 +6591,19 @@
         <v>11803</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5978</v>
+        <v>5901</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21804</v>
+        <v>20762</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04581534121350452</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02320561652356104</v>
+        <v>0.02290498424657787</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08463223230489286</v>
+        <v>0.08058759444387477</v>
       </c>
     </row>
     <row r="20">
@@ -6633,19 +6633,19 @@
         <v>3656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9777</v>
+        <v>9448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02563614143841433</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0071570179619909</v>
+        <v>0.007238624785202577</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06856405760475165</v>
+        <v>0.06625991591719149</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6654,19 +6654,19 @@
         <v>3656</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9990</v>
+        <v>10762</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01418932766169638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00404598091686765</v>
+        <v>0.004040502363352423</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03877483772746225</v>
+        <v>0.04177421766374295</v>
       </c>
     </row>
     <row r="21">
@@ -6758,19 +6758,19 @@
         <v>148909</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138601</v>
+        <v>138721</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>157033</v>
+        <v>157398</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8527713424669672</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7937404932085778</v>
+        <v>0.7944253659864923</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8992916392820717</v>
+        <v>0.9013830842349581</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>142</v>
@@ -6779,19 +6779,19 @@
         <v>169332</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>152232</v>
+        <v>153006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>185061</v>
+        <v>184603</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6974672241240061</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6270333021799388</v>
+        <v>0.6302226018856086</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7622531981736247</v>
+        <v>0.7603676860549597</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>304</v>
@@ -6800,19 +6800,19 @@
         <v>318242</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>298206</v>
+        <v>298582</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>335834</v>
+        <v>335422</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7624384085896105</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7144369949676446</v>
+        <v>0.7153385086153309</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8045851908270319</v>
+        <v>0.803598812439279</v>
       </c>
     </row>
     <row r="23">
@@ -6829,19 +6829,19 @@
         <v>9043</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4768</v>
+        <v>4477</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15858</v>
+        <v>16044</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05178570672328107</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02730387517307061</v>
+        <v>0.02563637729494186</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09081612665338606</v>
+        <v>0.09187874065429956</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -6850,19 +6850,19 @@
         <v>22116</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13427</v>
+        <v>14388</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>33546</v>
+        <v>34023</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09109556200357018</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05530396951268389</v>
+        <v>0.05926515286008424</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1381746988842919</v>
+        <v>0.1401366917446358</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>28</v>
@@ -6871,19 +6871,19 @@
         <v>31159</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21757</v>
+        <v>20891</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>45020</v>
+        <v>43597</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07465035832203089</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05212560106152072</v>
+        <v>0.05005015189020609</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1078585590442559</v>
+        <v>0.1044497710976056</v>
       </c>
     </row>
     <row r="24">
@@ -6900,19 +6900,19 @@
         <v>12958</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6590</v>
+        <v>7116</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21412</v>
+        <v>20749</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07420989100443626</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03774076254397156</v>
+        <v>0.04075264233410845</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1226193056422373</v>
+        <v>0.1188232894693297</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -6921,19 +6921,19 @@
         <v>42295</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29078</v>
+        <v>30334</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>57475</v>
+        <v>55923</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.174208875399556</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1197688712594464</v>
+        <v>0.124942719827422</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2367350134434063</v>
+        <v>0.2303433340182656</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -6942,19 +6942,19 @@
         <v>55253</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>41813</v>
+        <v>40947</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>72111</v>
+        <v>71436</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.13237448922339</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1001749552751179</v>
+        <v>0.09810057732807492</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1727628061512505</v>
+        <v>0.1711459311620964</v>
       </c>
     </row>
     <row r="25">
@@ -6971,19 +6971,19 @@
         <v>3708</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1220</v>
+        <v>923</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9525</v>
+        <v>9756</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02123305980531551</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006989302820577854</v>
+        <v>0.005286546111366912</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05454806444366873</v>
+        <v>0.05586848189332241</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -6992,19 +6992,19 @@
         <v>7805</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3750</v>
+        <v>3757</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16900</v>
+        <v>15139</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03214851927761565</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01544495856207144</v>
+        <v>0.01547584774863903</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06960996497221476</v>
+        <v>0.06235601025651492</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -7013,19 +7013,19 @@
         <v>11513</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5666</v>
+        <v>5990</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20815</v>
+        <v>20674</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02758205743186136</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01357342662124068</v>
+        <v>0.01435035213718914</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04986931263720629</v>
+        <v>0.04953092157084423</v>
       </c>
     </row>
     <row r="26">
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8908</v>
+        <v>6331</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005079819195252043</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03669334472228693</v>
+        <v>0.02607794247258185</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6199</v>
+        <v>6828</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002954686433107249</v>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01485094313939351</v>
+        <v>0.01635908581586599</v>
       </c>
     </row>
     <row r="27">
@@ -7180,19 +7180,19 @@
         <v>490699</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>474012</v>
+        <v>472970</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>509429</v>
+        <v>506860</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8298258279802535</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8016062117609483</v>
+        <v>0.7998445594305126</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8614996997900637</v>
+        <v>0.8571547408105674</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>462</v>
@@ -7201,19 +7201,19 @@
         <v>537722</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>511333</v>
+        <v>508571</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>563638</v>
+        <v>563315</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.691220406625393</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6572987337499544</v>
+        <v>0.6537485105537576</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7245347888315323</v>
+        <v>0.7241195124279722</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>979</v>
@@ -7222,19 +7222,19 @@
         <v>1028421</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>995807</v>
+        <v>995354</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1061365</v>
+        <v>1060253</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.751078524391502</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7272595485841984</v>
+        <v>0.7269292273468205</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7751383417055634</v>
+        <v>0.7743263781760488</v>
       </c>
     </row>
     <row r="29">
@@ -7251,19 +7251,19 @@
         <v>30531</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20969</v>
+        <v>21484</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41951</v>
+        <v>42537</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05163060380424175</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03546139723112066</v>
+        <v>0.03633118591868357</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07094450627486278</v>
+        <v>0.07193421904954497</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -7272,19 +7272,19 @@
         <v>71460</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>53373</v>
+        <v>54878</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>89479</v>
+        <v>90706</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09185913024939597</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06860951356464956</v>
+        <v>0.070543775656101</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1150222069568292</v>
+        <v>0.116598835063454</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>93</v>
@@ -7293,19 +7293,19 @@
         <v>101991</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>82906</v>
+        <v>82450</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>123874</v>
+        <v>123771</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07448604447848627</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06054771986467141</v>
+        <v>0.06021502866786037</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09046819412781419</v>
+        <v>0.09039268596451717</v>
       </c>
     </row>
     <row r="30">
@@ -7322,19 +7322,19 @@
         <v>46539</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>35656</v>
+        <v>35216</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>59010</v>
+        <v>61378</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07870335313210994</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06029771823749912</v>
+        <v>0.05955371008887396</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09979188821602322</v>
+        <v>0.1037974743848477</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>101</v>
@@ -7343,19 +7343,19 @@
         <v>127879</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>105769</v>
+        <v>106620</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152765</v>
+        <v>152778</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1643834259732863</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1359619840022339</v>
+        <v>0.1370552466540213</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1963729578642897</v>
+        <v>0.1963896476278455</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>151</v>
@@ -7364,19 +7364,19 @@
         <v>174418</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>148694</v>
+        <v>150172</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>201620</v>
+        <v>204051</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1273816417703044</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.108594637761611</v>
+        <v>0.1096739662129116</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1472473314679082</v>
+        <v>0.1490229400040443</v>
       </c>
     </row>
     <row r="31">
@@ -7393,19 +7393,19 @@
         <v>20929</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13994</v>
+        <v>13638</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30658</v>
+        <v>30457</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0353928630144093</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0236661376873313</v>
+        <v>0.02306355043276636</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05184524802907194</v>
+        <v>0.05150685645489285</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>25</v>
@@ -7414,19 +7414,19 @@
         <v>31517</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22149</v>
+        <v>20078</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>45626</v>
+        <v>44994</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0405142532377482</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.028471547986552</v>
+        <v>0.02580933298011561</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05865039942459412</v>
+        <v>0.05783810518382865</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>49</v>
@@ -7435,19 +7435,19 @@
         <v>52446</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>39494</v>
+        <v>39632</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>68076</v>
+        <v>68545</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03830253037641822</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02884352003095578</v>
+        <v>0.02894445615673783</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04971721946323383</v>
+        <v>0.05005999370367108</v>
       </c>
     </row>
     <row r="32">
@@ -7464,19 +7464,19 @@
         <v>2630</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7488</v>
+        <v>7825</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004447352068985462</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001400006131009914</v>
+        <v>0.00139364584774388</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01266378720100832</v>
+        <v>0.0132321294929337</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -7485,19 +7485,19 @@
         <v>9353</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3881</v>
+        <v>4024</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18182</v>
+        <v>19020</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01202278391417651</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00498907953796632</v>
+        <v>0.005172913652343402</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0233716208233975</v>
+        <v>0.02444959348314438</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -7506,19 +7506,19 @@
         <v>11983</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5716</v>
+        <v>5706</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21150</v>
+        <v>20647</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008751258983289118</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004174438813343543</v>
+        <v>0.004167066394887318</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01544636335866097</v>
+        <v>0.0150789633753256</v>
       </c>
     </row>
     <row r="33">
@@ -7850,19 +7850,19 @@
         <v>126869</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>116842</v>
+        <v>117766</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134071</v>
+        <v>134837</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7840687775167489</v>
+        <v>0.7840687775167486</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7221040116621853</v>
+        <v>0.7278159555302843</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8285823063760126</v>
+        <v>0.8333153201626675</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>266</v>
@@ -7871,19 +7871,19 @@
         <v>113575</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>104426</v>
+        <v>105140</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122689</v>
+        <v>122777</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5992128588542159</v>
+        <v>0.5992128588542157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5509410269556614</v>
+        <v>0.5547092786838627</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6472977548122647</v>
+        <v>0.6477613410156914</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>455</v>
@@ -7892,19 +7892,19 @@
         <v>240445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226933</v>
+        <v>229504</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>251325</v>
+        <v>254894</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6843452532381664</v>
+        <v>0.6843452532381665</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6458880942583333</v>
+        <v>0.6532060898309542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7153122140448138</v>
+        <v>0.7254701858360225</v>
       </c>
     </row>
     <row r="5">
@@ -7921,19 +7921,19 @@
         <v>14472</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9240</v>
+        <v>9416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21438</v>
+        <v>21339</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08943822783291687</v>
+        <v>0.08943822783291684</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05710447480903342</v>
+        <v>0.05819100390299232</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.13249038699473</v>
+        <v>0.1318772820288307</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -7942,19 +7942,19 @@
         <v>27778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22017</v>
+        <v>21300</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35439</v>
+        <v>34145</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1465523611251323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1161578794804543</v>
+        <v>0.1123752972506933</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1869704581450684</v>
+        <v>0.1801450134724878</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -7963,19 +7963,19 @@
         <v>42250</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34086</v>
+        <v>33677</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51384</v>
+        <v>50381</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1202493736118852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09701416860642979</v>
+        <v>0.09585044204248423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1462487232030142</v>
+        <v>0.1433919953869318</v>
       </c>
     </row>
     <row r="6">
@@ -7992,19 +7992,19 @@
         <v>14330</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9749</v>
+        <v>9635</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20726</v>
+        <v>20715</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08856058814096299</v>
+        <v>0.08856058814096297</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06025185252421653</v>
+        <v>0.05954607144423989</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1280870506876318</v>
+        <v>0.1280241945665298</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -8013,19 +8013,19 @@
         <v>33368</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26413</v>
+        <v>26674</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41020</v>
+        <v>40679</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1760438688105798</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1393539525346386</v>
+        <v>0.1407271735977506</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2164179268711502</v>
+        <v>0.2146201169037261</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>104</v>
@@ -8034,19 +8034,19 @@
         <v>47697</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38724</v>
+        <v>38779</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>58037</v>
+        <v>57381</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1357548631576752</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1102134900627636</v>
+        <v>0.1103727523075237</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.165181559173333</v>
+        <v>0.1633158524791444</v>
       </c>
     </row>
     <row r="7">
@@ -8063,19 +8063,19 @@
         <v>5453</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2451</v>
+        <v>2685</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10600</v>
+        <v>10853</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0337029145403145</v>
+        <v>0.03370291454031449</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01514927276644641</v>
+        <v>0.01659525689204601</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06551221749418584</v>
+        <v>0.06707123111483058</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -8084,19 +8084,19 @@
         <v>13601</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9268</v>
+        <v>8998</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19255</v>
+        <v>18756</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07175806338868113</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04889539076210504</v>
+        <v>0.04747469466317678</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1015897808737804</v>
+        <v>0.09895396273142688</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -8105,19 +8105,19 @@
         <v>19055</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13935</v>
+        <v>13819</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26018</v>
+        <v>25529</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05423238196317353</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03966203511647529</v>
+        <v>0.0393310451263096</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07405221367639515</v>
+        <v>0.07266100815644994</v>
       </c>
     </row>
     <row r="8">
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2509</v>
+        <v>2452</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.004229491969056832</v>
+        <v>0.004229491969056831</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01550411495159862</v>
+        <v>0.0151522313548411</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -8155,19 +8155,19 @@
         <v>1219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3471</v>
+        <v>3251</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.006432847821391049</v>
+        <v>0.006432847821391048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001661006511287126</v>
+        <v>0.001651008861802653</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0183108479509653</v>
+        <v>0.0171520523891384</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -8176,19 +8176,19 @@
         <v>1904</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4582</v>
+        <v>4463</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005418128029099534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001867439856152534</v>
+        <v>0.001953274823961754</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01303973670197316</v>
+        <v>0.01270137245997405</v>
       </c>
     </row>
     <row r="9">
@@ -8280,19 +8280,19 @@
         <v>143504</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>134050</v>
+        <v>134144</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151823</v>
+        <v>151563</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8052798511977551</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7522249869341771</v>
+        <v>0.7527567401640809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8519603387265282</v>
+        <v>0.8505020560811699</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>286</v>
@@ -8301,19 +8301,19 @@
         <v>155480</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>144970</v>
+        <v>144873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>165602</v>
+        <v>166400</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6468995500852215</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6031739336152147</v>
+        <v>0.6027686619461863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6890157863671514</v>
+        <v>0.6923347671555414</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>485</v>
@@ -8322,19 +8322,19 @@
         <v>298984</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>284328</v>
+        <v>285088</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>312973</v>
+        <v>312230</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7143323220945569</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.679315567567209</v>
+        <v>0.6811320552992909</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7477546286736875</v>
+        <v>0.7459800824533178</v>
       </c>
     </row>
     <row r="11">
@@ -8351,19 +8351,19 @@
         <v>7504</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4313</v>
+        <v>4112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12699</v>
+        <v>12184</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04210889380666304</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02420024662215171</v>
+        <v>0.02307502537042364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07126167433186532</v>
+        <v>0.06836928674645353</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -8372,19 +8372,19 @@
         <v>28212</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22392</v>
+        <v>21538</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36520</v>
+        <v>36281</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1173826657198079</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09316691980053099</v>
+        <v>0.08961329396754943</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1519494916031911</v>
+        <v>0.1509520552231413</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>66</v>
@@ -8393,19 +8393,19 @@
         <v>35716</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27478</v>
+        <v>27799</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44184</v>
+        <v>45450</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.08533373625038344</v>
+        <v>0.08533373625038343</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06565084002376041</v>
+        <v>0.06641679413641005</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1055650121893455</v>
+        <v>0.1085897302742399</v>
       </c>
     </row>
     <row r="12">
@@ -8422,19 +8422,19 @@
         <v>18855</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13048</v>
+        <v>12621</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26732</v>
+        <v>26979</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1058054070288139</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07322033714746645</v>
+        <v>0.07082300306053113</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1500085436447362</v>
+        <v>0.1513923478802331</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>69</v>
@@ -8443,19 +8443,19 @@
         <v>35907</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29049</v>
+        <v>28079</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44277</v>
+        <v>44138</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1493983219498095</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1208633704077925</v>
+        <v>0.1168257634215631</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1842229453779015</v>
+        <v>0.1836454344713417</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>98</v>
@@ -8464,19 +8464,19 @@
         <v>54762</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44258</v>
+        <v>44525</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65958</v>
+        <v>65308</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1308379891783673</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1057412911482367</v>
+        <v>0.1063802827307696</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1575864624782654</v>
+        <v>0.1560343877560714</v>
       </c>
     </row>
     <row r="13">
@@ -8493,19 +8493,19 @@
         <v>7864</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4175</v>
+        <v>4431</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13689</v>
+        <v>13208</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04412824523383967</v>
+        <v>0.04412824523383968</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02342913197274349</v>
+        <v>0.02486460409425748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07681606895600207</v>
+        <v>0.07411837601304685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -8514,19 +8514,19 @@
         <v>18029</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12368</v>
+        <v>13078</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24537</v>
+        <v>25412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07501154492613725</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05145758837693294</v>
+        <v>0.05441356243583324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1020892487418926</v>
+        <v>0.1057294257708838</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -8535,19 +8535,19 @@
         <v>25893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18326</v>
+        <v>18595</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33601</v>
+        <v>35428</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06186252012685386</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04378469386459543</v>
+        <v>0.04442604134971904</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08028067347256061</v>
+        <v>0.08464482909053768</v>
       </c>
     </row>
     <row r="14">
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2781</v>
+        <v>2838</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002677602732928156</v>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0156039367920852</v>
+        <v>0.01592745749147848</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -8585,19 +8585,19 @@
         <v>2718</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1128</v>
+        <v>1047</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5633</v>
+        <v>6018</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01130791731902387</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004694127150948769</v>
+        <v>0.004356350355726606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0234372132138737</v>
+        <v>0.02503937840053668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -8606,19 +8606,19 @@
         <v>3195</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1337</v>
+        <v>1401</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6770</v>
+        <v>6700</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.007633432349838657</v>
+        <v>0.007633432349838655</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003194268298272713</v>
+        <v>0.003347522487725743</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01617488355877921</v>
+        <v>0.01600744495366704</v>
       </c>
     </row>
     <row r="15">
@@ -8710,19 +8710,19 @@
         <v>121692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111046</v>
+        <v>111324</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>130716</v>
+        <v>130126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7616007416078969</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6949696999126509</v>
+        <v>0.6967111053574572</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8180712894794598</v>
+        <v>0.8143821492896092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>189</v>
@@ -8731,19 +8731,19 @@
         <v>111570</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>102329</v>
+        <v>100484</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>121580</v>
+        <v>121062</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6401005024412423</v>
+        <v>0.6401005024412422</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5870810395867434</v>
+        <v>0.5764969743340329</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.697528517409454</v>
+        <v>0.6945563171748026</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>336</v>
@@ -8752,19 +8752,19 @@
         <v>233262</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>217270</v>
+        <v>218346</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>246247</v>
+        <v>245872</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6982110195930289</v>
+        <v>0.698211019593029</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6503424865034914</v>
+        <v>0.6535655703576198</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7370783342431163</v>
+        <v>0.7359551130014117</v>
       </c>
     </row>
     <row r="17">
@@ -8781,19 +8781,19 @@
         <v>20657</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13863</v>
+        <v>14355</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29981</v>
+        <v>29684</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1292822819027127</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08675865077007409</v>
+        <v>0.0898363466296952</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1876336432089507</v>
+        <v>0.1857776983636174</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -8802,19 +8802,19 @@
         <v>26406</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19509</v>
+        <v>19700</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34737</v>
+        <v>34817</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1514942416679402</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1119281533703308</v>
+        <v>0.1130223279440034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1992936824037373</v>
+        <v>0.1997545445249191</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>67</v>
@@ -8823,19 +8823,19 @@
         <v>47063</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37907</v>
+        <v>37556</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58479</v>
+        <v>58708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1408708183910394</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1134665229017509</v>
+        <v>0.1124141676960219</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1750430570175225</v>
+        <v>0.1757287443548219</v>
       </c>
     </row>
     <row r="18">
@@ -8852,19 +8852,19 @@
         <v>14012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8261</v>
+        <v>8616</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21173</v>
+        <v>21861</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08769444335269827</v>
+        <v>0.08769444335269826</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05170114512811117</v>
+        <v>0.05392269232518136</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1325119624078954</v>
+        <v>0.1368138600501106</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -8873,19 +8873,19 @@
         <v>26016</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19070</v>
+        <v>19543</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34375</v>
+        <v>33623</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.149260716349307</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1094084009446628</v>
+        <v>0.1121232132704129</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1972181663615472</v>
+        <v>0.1929024274535614</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>58</v>
@@ -8894,19 +8894,19 @@
         <v>40028</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30767</v>
+        <v>30506</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>50933</v>
+        <v>50304</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1198151120650737</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09209183713224571</v>
+        <v>0.0913121989186684</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1524539252337536</v>
+        <v>0.1505716407528001</v>
       </c>
     </row>
     <row r="19">
@@ -8923,19 +8923,19 @@
         <v>3423</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>917</v>
+        <v>879</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8066</v>
+        <v>8271</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02142253313669205</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005741258039585018</v>
+        <v>0.005500711066272654</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05048293568928586</v>
+        <v>0.05176170798252237</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -8944,19 +8944,19 @@
         <v>9415</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5118</v>
+        <v>5625</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15282</v>
+        <v>15772</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05401296722795529</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02936565472464039</v>
+        <v>0.03227226832860723</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08767556205340245</v>
+        <v>0.09048570097634255</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -8965,19 +8965,19 @@
         <v>12837</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7946</v>
+        <v>7968</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19962</v>
+        <v>20196</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03842577997438248</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02378529147708414</v>
+        <v>0.02384910473337934</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05975065396487381</v>
+        <v>0.06045045710813995</v>
       </c>
     </row>
     <row r="20">
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3894</v>
+        <v>4461</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005131572313555322</v>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02234143390935452</v>
+        <v>0.02559182482486605</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4100</v>
+        <v>4608</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002677269976475397</v>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01227092530259881</v>
+        <v>0.01379178174350984</v>
       </c>
     </row>
     <row r="21">
@@ -9132,19 +9132,19 @@
         <v>170905</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>161086</v>
+        <v>161064</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>180187</v>
+        <v>178796</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7969981810430263</v>
+        <v>0.7969981810430262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7512071822065223</v>
+        <v>0.7511073235909829</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8402822572874548</v>
+        <v>0.8337978352098713</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>332</v>
@@ -9153,19 +9153,19 @@
         <v>181376</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>168870</v>
+        <v>168038</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>194637</v>
+        <v>192616</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6191421374593333</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5764508058022723</v>
+        <v>0.5736118163268741</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6644114351605077</v>
+        <v>0.6575120757893388</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>589</v>
@@ -9174,19 +9174,19 @@
         <v>352281</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>335292</v>
+        <v>335369</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>367789</v>
+        <v>369089</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6943095918746504</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6608261958042672</v>
+        <v>0.6609777831096534</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7248739117246443</v>
+        <v>0.7274361541806531</v>
       </c>
     </row>
     <row r="23">
@@ -9203,19 +9203,19 @@
         <v>18265</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12487</v>
+        <v>12775</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25356</v>
+        <v>25896</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08517925379639964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05823311560378579</v>
+        <v>0.05957659933544147</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1182453535918288</v>
+        <v>0.1207619222796298</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>78</v>
@@ -9224,19 +9224,19 @@
         <v>46156</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36839</v>
+        <v>37080</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>57193</v>
+        <v>56208</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1575559104515925</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1257525921578748</v>
+        <v>0.1265745597823934</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1952342481564965</v>
+        <v>0.1918703165920701</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>107</v>
@@ -9245,19 +9245,19 @@
         <v>64421</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>53114</v>
+        <v>53706</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>76983</v>
+        <v>76398</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1269673010895371</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1046814910547858</v>
+        <v>0.1058491241808913</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1517263134365844</v>
+        <v>0.1505726273304551</v>
       </c>
     </row>
     <row r="24">
@@ -9274,19 +9274,19 @@
         <v>21424</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15040</v>
+        <v>15228</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29021</v>
+        <v>29134</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09991018578554553</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07013961652177698</v>
+        <v>0.07101554280616434</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.135336836376168</v>
+        <v>0.1358654567354613</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>80</v>
@@ -9295,19 +9295,19 @@
         <v>45557</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>36657</v>
+        <v>37291</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56100</v>
+        <v>56415</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1555119611855749</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1251316488176134</v>
+        <v>0.1272958836689833</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1915021582187</v>
+        <v>0.1925786934002681</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>114</v>
@@ -9316,19 +9316,19 @@
         <v>66981</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>56203</v>
+        <v>56223</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>78985</v>
+        <v>79338</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1320129344807235</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1107701369062003</v>
+        <v>0.1108092213743244</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1556708088526378</v>
+        <v>0.1563666409074674</v>
       </c>
     </row>
     <row r="25">
@@ -9345,19 +9345,19 @@
         <v>3841</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1319</v>
+        <v>1283</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8051</v>
+        <v>7554</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0179123793750285</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006151262454156111</v>
+        <v>0.00598137257064876</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03754377943223664</v>
+        <v>0.03522551600259763</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -9366,19 +9366,19 @@
         <v>17942</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12017</v>
+        <v>11484</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26102</v>
+        <v>25697</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06124539384840177</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04102142078656507</v>
+        <v>0.03920306269046712</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08910015151383227</v>
+        <v>0.08771776688292837</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -9387,19 +9387,19 @@
         <v>21783</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14869</v>
+        <v>14361</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>31198</v>
+        <v>31001</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04293152424647944</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02930571815093028</v>
+        <v>0.02830457581709552</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0614887241642814</v>
+        <v>0.06109918762890283</v>
       </c>
     </row>
     <row r="26">
@@ -9429,19 +9429,19 @@
         <v>1917</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>458</v>
+        <v>795</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4761</v>
+        <v>4955</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00654459705509757</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001563599623712363</v>
+        <v>0.002714334864987926</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01625152920996836</v>
+        <v>0.0169148070303532</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -9450,19 +9450,19 @@
         <v>1917</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5182</v>
+        <v>5317</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003778648308609373</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0008805858966877507</v>
+        <v>0.0008899149571244083</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01021404160116737</v>
+        <v>0.01047932261554219</v>
       </c>
     </row>
     <row r="27">
@@ -9554,19 +9554,19 @@
         <v>562969</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>545687</v>
+        <v>543884</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>581398</v>
+        <v>580634</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.788216408797812</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7640188884092403</v>
+        <v>0.7614952744278833</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8140188062401952</v>
+        <v>0.8129485914150197</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1073</v>
@@ -9575,19 +9575,19 @@
         <v>562001</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>541307</v>
+        <v>539499</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>581611</v>
+        <v>582118</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.626439829488565</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6033725220545011</v>
+        <v>0.6013574300649834</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6482985055131995</v>
+        <v>0.6488634410877104</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1865</v>
@@ -9596,19 +9596,19 @@
         <v>1124971</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1095634</v>
+        <v>1093974</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1153902</v>
+        <v>1151373</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.698146672908186</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6799405690851211</v>
+        <v>0.6789101356535956</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7161006328651891</v>
+        <v>0.7145310924121285</v>
       </c>
     </row>
     <row r="29">
@@ -9625,19 +9625,19 @@
         <v>60899</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49065</v>
+        <v>49762</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>74592</v>
+        <v>74019</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08526441568721929</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06869650497712612</v>
+        <v>0.0696727012147363</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.104436166585312</v>
+        <v>0.1036343973890239</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>237</v>
@@ -9646,19 +9646,19 @@
         <v>128551</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>113082</v>
+        <v>112903</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>144831</v>
+        <v>143843</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1432908907936958</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1260481240525849</v>
+        <v>0.125848415245076</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1614374335435098</v>
+        <v>0.1603361704999469</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>329</v>
@@ -9667,19 +9667,19 @@
         <v>189450</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>170308</v>
+        <v>171205</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>211144</v>
+        <v>209708</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1175708800083347</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1056917687115032</v>
+        <v>0.1062480216054543</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1310340820805049</v>
+        <v>0.1301428175155163</v>
       </c>
     </row>
     <row r="30">
@@ -9696,19 +9696,19 @@
         <v>68621</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>56299</v>
+        <v>56179</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>83570</v>
+        <v>82435</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09607698459222214</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07882449304451004</v>
+        <v>0.07865671416713528</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1170074646523058</v>
+        <v>0.115417860123016</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>268</v>
@@ -9717,19 +9717,19 @@
         <v>140848</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>124857</v>
+        <v>125972</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>155653</v>
+        <v>157519</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.15699742129222</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1391725579229739</v>
+        <v>0.1404157581777396</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1734997258228032</v>
+        <v>0.1755799112284062</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>374</v>
@@ -9738,19 +9738,19 @@
         <v>209469</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>188977</v>
+        <v>187467</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>230193</v>
+        <v>229337</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1299946732173509</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1172775940276993</v>
+        <v>0.1163405180742453</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1428557872934635</v>
+        <v>0.1423245275862881</v>
       </c>
     </row>
     <row r="31">
@@ -9767,19 +9767,19 @@
         <v>20581</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14080</v>
+        <v>14526</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28767</v>
+        <v>30315</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02881593375063424</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01971284645695464</v>
+        <v>0.02033848184390515</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04027740745038346</v>
+        <v>0.04244466750125592</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>104</v>
@@ -9788,19 +9788,19 @@
         <v>58986</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>47910</v>
+        <v>48266</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>71296</v>
+        <v>71254</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06574929064727895</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0534033264201895</v>
+        <v>0.05379966482603305</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07947075119096958</v>
+        <v>0.07942417331317103</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>135</v>
@@ -9809,19 +9809,19 @@
         <v>79567</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>67223</v>
+        <v>67312</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>98212</v>
+        <v>95625</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04937872297143427</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04171807307083187</v>
+        <v>0.04177304764924968</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0609492089453092</v>
+        <v>0.05934378911310757</v>
       </c>
     </row>
     <row r="32">
@@ -9838,19 +9838,19 @@
         <v>1162</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3153</v>
+        <v>3357</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.001626257172112241</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0004718181540505243</v>
+        <v>0.0004739312939229487</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.004414813826886549</v>
+        <v>0.004699515677641443</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -9859,19 +9859,19 @@
         <v>6749</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3725</v>
+        <v>3754</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11399</v>
+        <v>11433</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007522567778240232</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00415194344863506</v>
+        <v>0.004184905108057668</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01270576973067291</v>
+        <v>0.01274398988961366</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>17</v>
@@ -9880,19 +9880,19 @@
         <v>7910</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4557</v>
+        <v>4560</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12992</v>
+        <v>12849</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004909050894694017</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002828070638730568</v>
+        <v>0.002829801345984547</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008062976196066978</v>
+        <v>0.007973983851304529</v>
       </c>
     </row>
     <row r="33">
